--- a/documents/test.xlsx
+++ b/documents/test.xlsx
@@ -9,19 +9,27 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -33,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,13 +49,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,123 +449,155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row 1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Row 2</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Row 3</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Row 4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D5" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Saturday</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9"/>
+    <row r="10">
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
